--- a/biology/Zoologie/Araneus_marmoreus/Araneus_marmoreus.xlsx
+++ b/biology/Zoologie/Araneus_marmoreus/Araneus_marmoreus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Araneus marmoreus est une espèce d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Araneus marmoreus est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone holarctique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone holarctique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Levi en 1971 mesure 8,4 mm et la femelle 14 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Levi en 1971 mesure 8,4 mm et la femelle 14 mm.
 Le corps est orangé sauf chez la forme pyramidatus ou il est plus terne.
 Leurs pattes ont de larges bandes rayées par des bandes blanches, pouvant avoir une teinte rosé presque transparente et des bandes allant du rouge au brun. Des poils faisant penser à des épines sont présentes sur chacune de ses pattes. 
 Les femelles ont un corps plus gros et rond que les mâles. Le centre du dos est généralement brun avec des rayures séparant les côtés qui eux sont d'une couleur plus pâle.
@@ -576,9 +592,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Araneus marmoreus trapezius[3] a été déclarée nomen dubium par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Araneus marmoreus trapezius a été déclarée nomen dubium par Breitling, Bauer, Schäfer, Morano, Barrientos et Blick en 2016.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Clerck, 1757 : Svenska spindlar, uti sina hufvud-slågter indelte samt under några och sextio särskildte arter beskrefne och med illuminerade figurer uplyste. Stockholmiae, p. 1-154. (lire sur Wikimedia)</t>
         </is>
